--- a/examples/output/190304-02_46-errors.xlsx
+++ b/examples/output/190304-02_46-errors.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klalande/Box Sync/klalande/Kevin/Online Courses/2017 Stanford Graduate Certificate/CS224/02_Project/01_Code/pytorch-pretrained-BERT/examples/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBEDDAB-25BF-6C49-86C7-D916540CB6C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25700" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="errorAnalysis" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>gold_file</t>
   </si>
@@ -94,10 +107,10 @@
     <t>other_did</t>
   </si>
   <si>
-    <t>other_is</t>
+    <t>other_can</t>
   </si>
   <si>
-    <t>other_can</t>
+    <t>other_is</t>
   </si>
   <si>
     <t>other_name</t>
@@ -109,16 +122,16 @@
     <t>other_if</t>
   </si>
   <si>
+    <t>other_were</t>
+  </si>
+  <si>
+    <t>other_do</t>
+  </si>
+  <si>
     <t>other_does</t>
   </si>
   <si>
     <t>other_has</t>
-  </si>
-  <si>
-    <t>other_were</t>
-  </si>
-  <si>
-    <t>other_do</t>
   </si>
   <si>
     <t>other_could</t>
@@ -135,12 +148,18 @@
   <si>
     <t>Length of Answer</t>
   </si>
+  <si>
+    <t>This version has the ensemble flag ON to combine Classifier and QA</t>
+  </si>
+  <si>
+    <t>Modest improvement … no_match is better for is_impossible but worse for is_possible</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +171,27 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -189,20 +229,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -249,7 +301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -281,9 +333,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,6 +385,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -490,22 +578,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:AC466"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C2:AC466"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="3:29">
+    <row r="2" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="K2" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="3:29">
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -513,7 +611,7 @@
         <v>6078</v>
       </c>
     </row>
-    <row r="5" spans="3:29">
+    <row r="5" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
@@ -521,7 +619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="3:29">
+    <row r="6" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
@@ -529,31 +627,31 @@
         <v>6078</v>
       </c>
     </row>
-    <row r="7" spans="3:29">
+    <row r="7" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7">
-        <v>74.6956235603817</v>
-      </c>
-    </row>
-    <row r="8" spans="3:29">
+        <v>75.074037512339586</v>
+      </c>
+    </row>
+    <row r="8" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D8">
-        <v>77.34593168006842</v>
-      </c>
-    </row>
-    <row r="9" spans="3:29">
+        <v>77.588270579398142</v>
+      </c>
+    </row>
+    <row r="9" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D9">
-        <v>80.24021059559065</v>
-      </c>
-    </row>
-    <row r="11" spans="3:29">
+        <v>80.388285620269826</v>
+      </c>
+    </row>
+    <row r="11" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -567,7 +665,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="3:29">
+    <row r="12" spans="3:29" x14ac:dyDescent="0.2">
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
@@ -617,15 +715,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="3:29">
+    <row r="13" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D13">
-        <v>617</v>
+        <v>544</v>
       </c>
       <c r="E13">
-        <v>2551</v>
+        <v>2624</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -633,6 +731,10 @@
       <c r="G13">
         <v>3168</v>
       </c>
+      <c r="H13" s="2">
+        <f>G13/G15</f>
+        <v>0.52122408687068111</v>
+      </c>
       <c r="K13" s="1">
         <v>170</v>
       </c>
@@ -667,42 +769,46 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>583</v>
+        <v>647</v>
       </c>
       <c r="AA13">
-        <v>2552</v>
+        <v>2625</v>
       </c>
       <c r="AB13">
         <v>0</v>
       </c>
       <c r="AC13">
-        <v>3135</v>
-      </c>
-    </row>
-    <row r="14" spans="3:29">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="14" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D14">
-        <v>653</v>
+        <v>717</v>
       </c>
       <c r="E14">
-        <v>1989</v>
+        <v>1939</v>
       </c>
       <c r="F14">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="G14">
         <v>2910</v>
       </c>
+      <c r="H14" s="2">
+        <f>G14/G15</f>
+        <v>0.47877591312931883</v>
+      </c>
       <c r="K14" s="1">
         <v>198</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -732,16 +838,32 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB14">
         <v>0</v>
       </c>
       <c r="AC14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="3:29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <f>SUM(D13:D14)</f>
+        <v>1261</v>
+      </c>
+      <c r="E15">
+        <f>SUM(E13:E14)</f>
+        <v>4563</v>
+      </c>
+      <c r="F15">
+        <f>SUM(F13:F14)</f>
+        <v>254</v>
+      </c>
+      <c r="G15">
+        <f>SUM(G13:G14)</f>
+        <v>6078</v>
+      </c>
       <c r="K15" s="1">
         <v>217</v>
       </c>
@@ -776,19 +898,31 @@
         <v>2</v>
       </c>
       <c r="Z15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA15">
         <v>22</v>
       </c>
       <c r="AB15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="3:29">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="D16" s="2">
+        <f>D15/$G$15</f>
+        <v>0.20746956235603817</v>
+      </c>
+      <c r="E16" s="2">
+        <f>E15/$G$15</f>
+        <v>0.75074037512339586</v>
+      </c>
+      <c r="F16" s="2">
+        <f>F15/$G$15</f>
+        <v>4.1790062520565975E-2</v>
+      </c>
       <c r="K16" s="1">
         <v>275</v>
       </c>
@@ -823,19 +957,19 @@
         <v>3</v>
       </c>
       <c r="Z16">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA16">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB16">
         <v>4</v>
       </c>
       <c r="AC16">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="3:29">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>36</v>
       </c>
@@ -873,19 +1007,19 @@
         <v>4</v>
       </c>
       <c r="Z17">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AA17">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AB17">
         <v>4</v>
       </c>
       <c r="AC17">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="18" spans="3:29">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,30 +1066,30 @@
         <v>5</v>
       </c>
       <c r="Z18">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AA18">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB18">
         <v>5</v>
       </c>
       <c r="AC18">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="3:29">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D19">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="E19">
-        <v>2802</v>
+        <v>2824</v>
       </c>
       <c r="F19">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G19">
         <v>3726</v>
@@ -979,10 +1113,10 @@
         <v>19</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U19">
         <v>1</v>
@@ -994,30 +1128,30 @@
         <v>6</v>
       </c>
       <c r="Z19">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA19">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AB19">
         <v>4</v>
       </c>
       <c r="AC19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="3:29">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D20">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E20">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F20">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G20">
         <v>714</v>
@@ -1056,30 +1190,30 @@
         <v>7</v>
       </c>
       <c r="Z20">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AA20">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AB20">
         <v>5</v>
       </c>
       <c r="AC20">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="3:29">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D21">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E21">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F21">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G21">
         <v>605</v>
@@ -1118,27 +1252,27 @@
         <v>8</v>
       </c>
       <c r="Z21">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AA21">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB21">
         <v>5</v>
       </c>
       <c r="AC21">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="3:29">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D22">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E22">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F22">
         <v>12</v>
@@ -1150,13 +1284,13 @@
         <v>319</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22">
         <v>14</v>
       </c>
       <c r="N22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O22">
         <v>19</v>
@@ -1183,27 +1317,27 @@
         <v>38</v>
       </c>
       <c r="AA22">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB22">
         <v>7</v>
       </c>
       <c r="AC22">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="3:29">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D23">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E23">
         <v>198</v>
       </c>
       <c r="F23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23">
         <v>275</v>
@@ -1242,27 +1376,27 @@
         <v>10</v>
       </c>
       <c r="Z23">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA23">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AB23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC23">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="3:29">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D24">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E24">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F24">
         <v>9</v>
@@ -1289,10 +1423,10 @@
         <v>24</v>
       </c>
       <c r="S24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -1304,7 +1438,7 @@
         <v>11</v>
       </c>
       <c r="Z24">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA24">
         <v>93</v>
@@ -1313,18 +1447,18 @@
         <v>3</v>
       </c>
       <c r="AC24">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="3:29">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F25">
         <v>16</v>
@@ -1366,19 +1500,19 @@
         <v>12</v>
       </c>
       <c r="Z25">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AA25">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AB25">
         <v>5</v>
       </c>
       <c r="AC25">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="3:29">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>23</v>
       </c>
@@ -1428,19 +1562,19 @@
         <v>13</v>
       </c>
       <c r="Z26">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AA26">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AB26">
         <v>9</v>
       </c>
       <c r="AC26">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="3:29">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>24</v>
       </c>
@@ -1475,10 +1609,10 @@
         <v>27</v>
       </c>
       <c r="S27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T27">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -1490,19 +1624,19 @@
         <v>14</v>
       </c>
       <c r="Z27">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA27">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB27">
         <v>6</v>
       </c>
       <c r="AC27">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="3:29">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>25</v>
       </c>
@@ -1552,27 +1686,27 @@
         <v>15</v>
       </c>
       <c r="Z28">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AA28">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AB28">
         <v>6</v>
       </c>
       <c r="AC28">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="3:29">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1614,30 +1748,30 @@
         <v>16</v>
       </c>
       <c r="Z29">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA29">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AB29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC29">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="3:29">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>7</v>
@@ -1676,19 +1810,19 @@
         <v>17</v>
       </c>
       <c r="Z30">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AA30">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AB30">
         <v>4</v>
       </c>
       <c r="AC30">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="3:29">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>28</v>
       </c>
@@ -1723,13 +1857,13 @@
         <v>31</v>
       </c>
       <c r="S31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T31">
         <v>43</v>
       </c>
       <c r="U31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V31">
         <v>58</v>
@@ -1738,19 +1872,19 @@
         <v>18</v>
       </c>
       <c r="Z31">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA31">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB31">
         <v>3</v>
       </c>
       <c r="AC31">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="3:29">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>29</v>
       </c>
@@ -1800,19 +1934,19 @@
         <v>19</v>
       </c>
       <c r="Z32">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA32">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AB32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC32">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="3:29">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>30</v>
       </c>
@@ -1832,10 +1966,10 @@
         <v>421</v>
       </c>
       <c r="L33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -1847,10 +1981,10 @@
         <v>33</v>
       </c>
       <c r="S33">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T33">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U33">
         <v>5</v>
@@ -1874,15 +2008,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="3:29">
+    <row r="34" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1924,19 +2058,19 @@
         <v>21</v>
       </c>
       <c r="Z34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA34">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB34">
         <v>9</v>
       </c>
       <c r="AC34">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="3:29">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>32</v>
       </c>
@@ -1971,10 +2105,10 @@
         <v>35</v>
       </c>
       <c r="S35">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T35">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U35">
         <v>3</v>
@@ -1986,27 +2120,27 @@
         <v>22</v>
       </c>
       <c r="Z35">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA35">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB35">
         <v>3</v>
       </c>
       <c r="AC35">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="3:29">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2033,10 +2167,10 @@
         <v>36</v>
       </c>
       <c r="S36">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T36">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="U36">
         <v>5</v>
@@ -2051,16 +2185,16 @@
         <v>10</v>
       </c>
       <c r="AA36">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AB36">
         <v>5</v>
       </c>
       <c r="AC36">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="3:29">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C37" s="1" t="s">
         <v>34</v>
       </c>
@@ -2095,13 +2229,13 @@
         <v>37</v>
       </c>
       <c r="S37">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="T37">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V37">
         <v>92</v>
@@ -2110,19 +2244,19 @@
         <v>24</v>
       </c>
       <c r="Z37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA37">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB37">
         <v>3</v>
       </c>
       <c r="AC37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="3:29">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>35</v>
       </c>
@@ -2157,10 +2291,10 @@
         <v>38</v>
       </c>
       <c r="S38">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="T38">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="U38">
         <v>6</v>
@@ -2172,7 +2306,7 @@
         <v>25</v>
       </c>
       <c r="Z38">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA38">
         <v>30</v>
@@ -2181,10 +2315,10 @@
         <v>4</v>
       </c>
       <c r="AC38">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="3:29">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="3:29" x14ac:dyDescent="0.2">
       <c r="K39" s="1">
         <v>467</v>
       </c>
@@ -2204,10 +2338,10 @@
         <v>39</v>
       </c>
       <c r="S39">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T39">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U39">
         <v>5</v>
@@ -2219,19 +2353,19 @@
         <v>26</v>
       </c>
       <c r="Z39">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA39">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB39">
         <v>2</v>
       </c>
       <c r="AC39">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="3:29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="3:29" x14ac:dyDescent="0.2">
       <c r="K40" s="1">
         <v>469</v>
       </c>
@@ -2251,10 +2385,10 @@
         <v>40</v>
       </c>
       <c r="S40">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T40">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U40">
         <v>3</v>
@@ -2278,7 +2412,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="3:29">
+    <row r="41" spans="3:29" x14ac:dyDescent="0.2">
       <c r="K41" s="1">
         <v>474</v>
       </c>
@@ -2325,7 +2459,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="3:29">
+    <row r="42" spans="3:29" x14ac:dyDescent="0.2">
       <c r="K42" s="1">
         <v>478</v>
       </c>
@@ -2372,7 +2506,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="3:29">
+    <row r="43" spans="3:29" x14ac:dyDescent="0.2">
       <c r="K43" s="1">
         <v>482</v>
       </c>
@@ -2392,10 +2526,10 @@
         <v>43</v>
       </c>
       <c r="S43">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T43">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U43">
         <v>7</v>
@@ -2407,19 +2541,19 @@
         <v>30</v>
       </c>
       <c r="Z43">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA43">
         <v>10</v>
       </c>
       <c r="AB43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC43">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="3:29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="3:29" x14ac:dyDescent="0.2">
       <c r="K44" s="1">
         <v>499</v>
       </c>
@@ -2439,13 +2573,13 @@
         <v>44</v>
       </c>
       <c r="S44">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T44">
         <v>103</v>
       </c>
       <c r="U44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V44">
         <v>139</v>
@@ -2454,7 +2588,7 @@
         <v>31</v>
       </c>
       <c r="Z44">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AA44">
         <v>21</v>
@@ -2463,18 +2597,18 @@
         <v>4</v>
       </c>
       <c r="AC44">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="3:29">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="3:29" x14ac:dyDescent="0.2">
       <c r="K45" s="1">
         <v>500</v>
       </c>
       <c r="L45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M45">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2513,7 +2647,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="3:29">
+    <row r="46" spans="3:29" x14ac:dyDescent="0.2">
       <c r="K46" s="1">
         <v>501</v>
       </c>
@@ -2533,10 +2667,10 @@
         <v>46</v>
       </c>
       <c r="S46">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T46">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="U46">
         <v>7</v>
@@ -2548,7 +2682,7 @@
         <v>33</v>
       </c>
       <c r="Z46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA46">
         <v>15</v>
@@ -2557,10 +2691,10 @@
         <v>6</v>
       </c>
       <c r="AC46">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="3:29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="3:29" x14ac:dyDescent="0.2">
       <c r="K47" s="1">
         <v>502</v>
       </c>
@@ -2583,10 +2717,10 @@
         <v>25</v>
       </c>
       <c r="T47">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V47">
         <v>107</v>
@@ -2607,7 +2741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="3:29">
+    <row r="48" spans="3:29" x14ac:dyDescent="0.2">
       <c r="K48" s="1">
         <v>503</v>
       </c>
@@ -2642,7 +2776,7 @@
         <v>35</v>
       </c>
       <c r="Z48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA48">
         <v>15</v>
@@ -2651,10 +2785,10 @@
         <v>3</v>
       </c>
       <c r="AC48">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="11:29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K49" s="1">
         <v>505</v>
       </c>
@@ -2674,10 +2808,10 @@
         <v>49</v>
       </c>
       <c r="S49">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T49">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U49">
         <v>1</v>
@@ -2701,15 +2835,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="11:29">
+    <row r="50" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K50" s="1">
         <v>507</v>
       </c>
       <c r="L50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2721,10 +2855,10 @@
         <v>50</v>
       </c>
       <c r="S50">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="T50">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U50">
         <v>7</v>
@@ -2736,7 +2870,7 @@
         <v>37</v>
       </c>
       <c r="Z50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA50">
         <v>10</v>
@@ -2745,10 +2879,10 @@
         <v>1</v>
       </c>
       <c r="AC50">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="11:29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K51" s="1">
         <v>508</v>
       </c>
@@ -2768,10 +2902,10 @@
         <v>51</v>
       </c>
       <c r="S51">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T51">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U51">
         <v>1</v>
@@ -2783,7 +2917,7 @@
         <v>38</v>
       </c>
       <c r="Z51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA51">
         <v>11</v>
@@ -2792,10 +2926,10 @@
         <v>4</v>
       </c>
       <c r="AC51">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="11:29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K52" s="1">
         <v>510</v>
       </c>
@@ -2815,10 +2949,10 @@
         <v>52</v>
       </c>
       <c r="S52">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="T52">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="U52">
         <v>4</v>
@@ -2842,7 +2976,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="11:29">
+    <row r="53" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K53" s="1">
         <v>511</v>
       </c>
@@ -2862,13 +2996,13 @@
         <v>53</v>
       </c>
       <c r="S53">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T53">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V53">
         <v>122</v>
@@ -2880,24 +3014,24 @@
         <v>2</v>
       </c>
       <c r="AA53">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB53">
         <v>3</v>
       </c>
       <c r="AC53">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="11:29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K54" s="1">
         <v>513</v>
       </c>
       <c r="L54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M54">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -2909,10 +3043,10 @@
         <v>54</v>
       </c>
       <c r="S54">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T54">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="U54">
         <v>2</v>
@@ -2924,7 +3058,7 @@
         <v>41</v>
       </c>
       <c r="Z54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA54">
         <v>9</v>
@@ -2933,10 +3067,10 @@
         <v>3</v>
       </c>
       <c r="AC54">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="11:29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K55" s="1">
         <v>514</v>
       </c>
@@ -2956,10 +3090,10 @@
         <v>55</v>
       </c>
       <c r="S55">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T55">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="U55">
         <v>6</v>
@@ -2974,16 +3108,16 @@
         <v>2</v>
       </c>
       <c r="AA55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB55">
         <v>2</v>
       </c>
       <c r="AC55">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="11:29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K56" s="1">
         <v>516</v>
       </c>
@@ -3003,10 +3137,10 @@
         <v>56</v>
       </c>
       <c r="S56">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T56">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U56">
         <v>8</v>
@@ -3030,7 +3164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="11:29">
+    <row r="57" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K57" s="1">
         <v>518</v>
       </c>
@@ -3050,10 +3184,10 @@
         <v>57</v>
       </c>
       <c r="S57">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T57">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U57">
         <v>4</v>
@@ -3071,21 +3205,21 @@
         <v>7</v>
       </c>
       <c r="AB57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC57">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="11:29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K58" s="1">
         <v>519</v>
       </c>
       <c r="L58">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M58">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3097,10 +3231,10 @@
         <v>58</v>
       </c>
       <c r="S58">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="T58">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="U58">
         <v>4</v>
@@ -3118,13 +3252,13 @@
         <v>5</v>
       </c>
       <c r="AB58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC58">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="11:29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K59" s="1">
         <v>520</v>
       </c>
@@ -3171,15 +3305,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="11:29">
+    <row r="60" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K60" s="1">
         <v>522</v>
       </c>
       <c r="L60">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M60">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3194,10 +3328,10 @@
         <v>32</v>
       </c>
       <c r="T60">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="U60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V60">
         <v>129</v>
@@ -3218,7 +3352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="11:29">
+    <row r="61" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K61" s="1">
         <v>523</v>
       </c>
@@ -3253,7 +3387,7 @@
         <v>48</v>
       </c>
       <c r="Z61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA61">
         <v>6</v>
@@ -3262,10 +3396,10 @@
         <v>4</v>
       </c>
       <c r="AC61">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="11:29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K62" s="1">
         <v>524</v>
       </c>
@@ -3285,13 +3419,13 @@
         <v>62</v>
       </c>
       <c r="S62">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T62">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="U62">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V62">
         <v>115</v>
@@ -3303,16 +3437,16 @@
         <v>2</v>
       </c>
       <c r="AA62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB62">
         <v>1</v>
       </c>
       <c r="AC62">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="11:29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K63" s="1">
         <v>527</v>
       </c>
@@ -3332,10 +3466,10 @@
         <v>63</v>
       </c>
       <c r="S63">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T63">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U63">
         <v>4</v>
@@ -3359,7 +3493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="11:29">
+    <row r="64" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K64" s="1">
         <v>529</v>
       </c>
@@ -3379,10 +3513,10 @@
         <v>64</v>
       </c>
       <c r="S64">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T64">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U64">
         <v>7</v>
@@ -3406,15 +3540,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="11:29">
+    <row r="65" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K65" s="1">
         <v>531</v>
       </c>
       <c r="L65">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M65">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N65">
         <v>2</v>
@@ -3426,10 +3560,10 @@
         <v>65</v>
       </c>
       <c r="S65">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="T65">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U65">
         <v>2</v>
@@ -3447,13 +3581,13 @@
         <v>5</v>
       </c>
       <c r="AB65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="11:29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K66" s="1">
         <v>532</v>
       </c>
@@ -3473,10 +3607,10 @@
         <v>66</v>
       </c>
       <c r="S66">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T66">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U66">
         <v>3</v>
@@ -3500,7 +3634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="11:29">
+    <row r="67" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K67" s="1">
         <v>534</v>
       </c>
@@ -3520,13 +3654,13 @@
         <v>67</v>
       </c>
       <c r="S67">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T67">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="U67">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V67">
         <v>100</v>
@@ -3547,7 +3681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="11:29">
+    <row r="68" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K68" s="1">
         <v>535</v>
       </c>
@@ -3567,10 +3701,10 @@
         <v>68</v>
       </c>
       <c r="S68">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T68">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U68">
         <v>6</v>
@@ -3582,7 +3716,7 @@
         <v>55</v>
       </c>
       <c r="Z68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA68">
         <v>6</v>
@@ -3591,18 +3725,18 @@
         <v>1</v>
       </c>
       <c r="AC68">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="11:29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K69" s="1">
         <v>536</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M69">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -3641,7 +3775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="11:29">
+    <row r="70" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K70" s="1">
         <v>538</v>
       </c>
@@ -3661,10 +3795,10 @@
         <v>70</v>
       </c>
       <c r="S70">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T70">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U70">
         <v>4</v>
@@ -3688,7 +3822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="11:29">
+    <row r="71" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K71" s="1">
         <v>539</v>
       </c>
@@ -3708,10 +3842,10 @@
         <v>71</v>
       </c>
       <c r="S71">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T71">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U71">
         <v>2</v>
@@ -3735,7 +3869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="11:29">
+    <row r="72" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K72" s="1">
         <v>541</v>
       </c>
@@ -3770,7 +3904,7 @@
         <v>59</v>
       </c>
       <c r="Z72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA72">
         <v>2</v>
@@ -3779,10 +3913,10 @@
         <v>3</v>
       </c>
       <c r="AC72">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="11:29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K73" s="1">
         <v>542</v>
       </c>
@@ -3802,10 +3936,10 @@
         <v>73</v>
       </c>
       <c r="S73">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T73">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U73">
         <v>1</v>
@@ -3829,7 +3963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="11:29">
+    <row r="74" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K74" s="1">
         <v>543</v>
       </c>
@@ -3876,7 +4010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="11:29">
+    <row r="75" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K75" s="1">
         <v>544</v>
       </c>
@@ -3896,10 +4030,10 @@
         <v>75</v>
       </c>
       <c r="S75">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T75">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U75">
         <v>3</v>
@@ -3911,7 +4045,7 @@
         <v>62</v>
       </c>
       <c r="Z75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA75">
         <v>2</v>
@@ -3920,10 +4054,10 @@
         <v>2</v>
       </c>
       <c r="AC75">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="11:29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K76" s="1">
         <v>545</v>
       </c>
@@ -3970,7 +4104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="11:29">
+    <row r="77" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K77" s="1">
         <v>546</v>
       </c>
@@ -3990,10 +4124,10 @@
         <v>77</v>
       </c>
       <c r="S77">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T77">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U77">
         <v>1</v>
@@ -4017,7 +4151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="11:29">
+    <row r="78" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K78" s="1">
         <v>548</v>
       </c>
@@ -4037,10 +4171,10 @@
         <v>78</v>
       </c>
       <c r="S78">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T78">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U78">
         <v>4</v>
@@ -4064,7 +4198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="11:29">
+    <row r="79" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K79" s="1">
         <v>549</v>
       </c>
@@ -4111,15 +4245,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="11:29">
+    <row r="80" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K80" s="1">
         <v>550</v>
       </c>
       <c r="L80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M80">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4152,13 +4286,13 @@
         <v>1</v>
       </c>
       <c r="AB80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="11:29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K81" s="1">
         <v>551</v>
       </c>
@@ -4178,10 +4312,10 @@
         <v>81</v>
       </c>
       <c r="S81">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T81">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U81">
         <v>1</v>
@@ -4205,7 +4339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="11:29">
+    <row r="82" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K82" s="1">
         <v>552</v>
       </c>
@@ -4252,7 +4386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="11:29">
+    <row r="83" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K83" s="1">
         <v>553</v>
       </c>
@@ -4272,10 +4406,10 @@
         <v>83</v>
       </c>
       <c r="S83">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T83">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U83">
         <v>2</v>
@@ -4299,7 +4433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="11:29">
+    <row r="84" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K84" s="1">
         <v>554</v>
       </c>
@@ -4319,10 +4453,10 @@
         <v>84</v>
       </c>
       <c r="S84">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T84">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U84">
         <v>2</v>
@@ -4346,15 +4480,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="11:29">
+    <row r="85" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K85" s="1">
         <v>555</v>
       </c>
       <c r="L85">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M85">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -4393,7 +4527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="11:29">
+    <row r="86" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K86" s="1">
         <v>556</v>
       </c>
@@ -4434,13 +4568,13 @@
         <v>1</v>
       </c>
       <c r="AB86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC86">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="11:29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K87" s="1">
         <v>557</v>
       </c>
@@ -4460,19 +4594,19 @@
         <v>87</v>
       </c>
       <c r="S87">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T87">
         <v>27</v>
       </c>
       <c r="U87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V87">
         <v>38</v>
       </c>
       <c r="Y87" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z87">
         <v>0</v>
@@ -4481,21 +4615,21 @@
         <v>1</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="11:29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K88" s="1">
         <v>559</v>
       </c>
       <c r="L88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M88">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -4519,30 +4653,30 @@
         <v>33</v>
       </c>
       <c r="Y88" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA88">
         <v>1</v>
       </c>
       <c r="AB88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="11:29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K89" s="1">
         <v>561</v>
       </c>
       <c r="L89">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M89">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N89">
         <v>4</v>
@@ -4554,10 +4688,10 @@
         <v>89</v>
       </c>
       <c r="S89">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T89">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U89">
         <v>1</v>
@@ -4566,22 +4700,22 @@
         <v>46</v>
       </c>
       <c r="Y89" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB89">
         <v>2</v>
       </c>
       <c r="AC89">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="11:29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K90" s="1">
         <v>562</v>
       </c>
@@ -4601,42 +4735,42 @@
         <v>90</v>
       </c>
       <c r="S90">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T90">
         <v>25</v>
       </c>
       <c r="U90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V90">
         <v>40</v>
       </c>
       <c r="Y90" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="11:29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K91" s="1">
         <v>564</v>
       </c>
       <c r="L91">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M91">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -4648,10 +4782,10 @@
         <v>91</v>
       </c>
       <c r="S91">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T91">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U91">
         <v>1</v>
@@ -4660,22 +4794,22 @@
         <v>28</v>
       </c>
       <c r="Y91" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA91">
         <v>1</v>
       </c>
       <c r="AB91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC91">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="11:29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K92" s="1">
         <v>565</v>
       </c>
@@ -4707,22 +4841,22 @@
         <v>31</v>
       </c>
       <c r="Y92" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA92">
         <v>1</v>
       </c>
       <c r="AB92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC92">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="11:29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K93" s="1">
         <v>566</v>
       </c>
@@ -4754,22 +4888,22 @@
         <v>22</v>
       </c>
       <c r="Y93" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB93">
         <v>1</v>
       </c>
       <c r="AC93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="11:29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K94" s="1">
         <v>567</v>
       </c>
@@ -4801,22 +4935,22 @@
         <v>27</v>
       </c>
       <c r="Y94" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z94">
         <v>1</v>
       </c>
       <c r="AA94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC94">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="11:29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K95" s="1">
         <v>568</v>
       </c>
@@ -4836,10 +4970,10 @@
         <v>95</v>
       </c>
       <c r="S95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T95">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U95">
         <v>1</v>
@@ -4848,30 +4982,30 @@
         <v>28</v>
       </c>
       <c r="Y95" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="11:29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K96" s="1">
         <v>569</v>
       </c>
       <c r="L96">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M96">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N96">
         <v>3</v>
@@ -4883,42 +5017,42 @@
         <v>96</v>
       </c>
       <c r="S96">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T96">
         <v>13</v>
       </c>
       <c r="U96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V96">
         <v>26</v>
       </c>
       <c r="Y96" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB96">
         <v>1</v>
       </c>
       <c r="AC96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="11:29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K97" s="1">
         <v>571</v>
       </c>
       <c r="L97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M97">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N97">
         <v>2</v>
@@ -4942,22 +5076,22 @@
         <v>28</v>
       </c>
       <c r="Y97" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC97">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="11:29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K98" s="1">
         <v>575</v>
       </c>
@@ -4977,10 +5111,10 @@
         <v>98</v>
       </c>
       <c r="S98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T98">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U98">
         <v>1</v>
@@ -4989,22 +5123,22 @@
         <v>17</v>
       </c>
       <c r="Y98" s="1">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Z98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC98">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="11:29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K99" s="1">
         <v>576</v>
       </c>
@@ -5036,22 +5170,22 @@
         <v>21</v>
       </c>
       <c r="Y99" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Z99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA99">
         <v>0</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="11:29">
+    <row r="100" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K100" s="1">
         <v>577</v>
       </c>
@@ -5083,22 +5217,22 @@
         <v>15</v>
       </c>
       <c r="Y100" s="1">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Z100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA100">
         <v>1</v>
       </c>
       <c r="AB100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC100">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="11:29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K101" s="1">
         <v>578</v>
       </c>
@@ -5130,22 +5264,22 @@
         <v>19</v>
       </c>
       <c r="Y101" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA101">
         <v>0</v>
       </c>
       <c r="AB101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="11:29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K102" s="1">
         <v>580</v>
       </c>
@@ -5177,22 +5311,22 @@
         <v>9</v>
       </c>
       <c r="Y102" s="1">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Z102">
         <v>0</v>
       </c>
       <c r="AA102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC102">
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="11:29">
+    <row r="103" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K103" s="1">
         <v>581</v>
       </c>
@@ -5224,22 +5358,22 @@
         <v>14</v>
       </c>
       <c r="Y103" s="1">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="Z103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA103">
         <v>0</v>
       </c>
       <c r="AB103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC103">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="11:29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K104" s="1">
         <v>582</v>
       </c>
@@ -5259,10 +5393,10 @@
         <v>104</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T104">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U104">
         <v>0</v>
@@ -5271,22 +5405,22 @@
         <v>18</v>
       </c>
       <c r="Y104" s="1">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Z104">
         <v>0</v>
       </c>
       <c r="AA104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="11:29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K105" s="1">
         <v>584</v>
       </c>
@@ -5318,22 +5452,22 @@
         <v>9</v>
       </c>
       <c r="Y105" s="1">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA105">
         <v>0</v>
       </c>
       <c r="AB105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="11:29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K106" s="1">
         <v>585</v>
       </c>
@@ -5365,22 +5499,22 @@
         <v>7</v>
       </c>
       <c r="Y106" s="1">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA106">
         <v>1</v>
       </c>
       <c r="AB106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC106">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="11:29">
+    <row r="107" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K107" s="1">
         <v>587</v>
       </c>
@@ -5412,22 +5546,22 @@
         <v>8</v>
       </c>
       <c r="Y107" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Z107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA107">
         <v>0</v>
       </c>
       <c r="AB107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC107">
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="11:29">
+    <row r="108" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K108" s="1">
         <v>588</v>
       </c>
@@ -5447,10 +5581,10 @@
         <v>108</v>
       </c>
       <c r="S108">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T108">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U108">
         <v>0</v>
@@ -5459,22 +5593,22 @@
         <v>12</v>
       </c>
       <c r="Y108" s="1">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Z108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB108">
         <v>1</v>
       </c>
       <c r="AC108">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="11:29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K109" s="1">
         <v>590</v>
       </c>
@@ -5506,22 +5640,22 @@
         <v>9</v>
       </c>
       <c r="Y109" s="1">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Z109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC109">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="11:29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K110" s="1">
         <v>591</v>
       </c>
@@ -5541,10 +5675,10 @@
         <v>110</v>
       </c>
       <c r="S110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T110">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U110">
         <v>0</v>
@@ -5553,22 +5687,22 @@
         <v>6</v>
       </c>
       <c r="Y110" s="1">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="Z110">
         <v>0</v>
       </c>
       <c r="AA110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB110">
         <v>1</v>
       </c>
       <c r="AC110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="11:29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K111" s="1">
         <v>592</v>
       </c>
@@ -5600,30 +5734,30 @@
         <v>9</v>
       </c>
       <c r="Y111" s="1">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="Z111">
         <v>0</v>
       </c>
       <c r="AA111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC111">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="11:29">
+    <row r="112" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K112" s="1">
         <v>594</v>
       </c>
       <c r="L112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M112">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -5635,34 +5769,34 @@
         <v>112</v>
       </c>
       <c r="S112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T112">
         <v>6</v>
       </c>
       <c r="U112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V112">
         <v>7</v>
       </c>
       <c r="Y112" s="1">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="Z112">
         <v>0</v>
       </c>
       <c r="AA112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB112">
         <v>1</v>
       </c>
       <c r="AC112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="11:29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K113" s="1">
         <v>597</v>
       </c>
@@ -5694,7 +5828,7 @@
         <v>6</v>
       </c>
       <c r="Y113" s="1">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Z113">
         <v>0</v>
@@ -5709,7 +5843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="11:29">
+    <row r="114" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K114" s="1">
         <v>598</v>
       </c>
@@ -5741,30 +5875,30 @@
         <v>5</v>
       </c>
       <c r="Y114" s="1">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="Z114">
         <v>0</v>
       </c>
       <c r="AA114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC114">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="11:29">
+    <row r="115" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K115" s="1">
         <v>599</v>
       </c>
       <c r="L115">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M115">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -5788,22 +5922,22 @@
         <v>4</v>
       </c>
       <c r="Y115" s="1">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA115">
         <v>0</v>
       </c>
       <c r="AB115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="11:29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K116" s="1">
         <v>600</v>
       </c>
@@ -5823,10 +5957,10 @@
         <v>116</v>
       </c>
       <c r="S116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T116">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U116">
         <v>1</v>
@@ -5835,22 +5969,22 @@
         <v>7</v>
       </c>
       <c r="Y116" s="1">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC116">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="11:29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K117" s="1">
         <v>601</v>
       </c>
@@ -5882,22 +6016,22 @@
         <v>4</v>
       </c>
       <c r="Y117" s="1">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="11:29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K118" s="1">
         <v>602</v>
       </c>
@@ -5917,10 +6051,10 @@
         <v>118</v>
       </c>
       <c r="S118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U118">
         <v>0</v>
@@ -5929,30 +6063,30 @@
         <v>5</v>
       </c>
       <c r="Y118" s="1">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="11:29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K119" s="1">
         <v>603</v>
       </c>
       <c r="L119">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N119">
         <v>3</v>
@@ -5976,22 +6110,22 @@
         <v>7</v>
       </c>
       <c r="Y119" s="1">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="Z119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA119">
         <v>0</v>
       </c>
       <c r="AB119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="11:29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K120" s="1">
         <v>604</v>
       </c>
@@ -6023,7 +6157,7 @@
         <v>7</v>
       </c>
       <c r="Y120" s="1">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="Z120">
         <v>1</v>
@@ -6032,21 +6166,21 @@
         <v>0</v>
       </c>
       <c r="AB120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="11:29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K121" s="1">
         <v>605</v>
       </c>
       <c r="L121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M121">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -6070,7 +6204,7 @@
         <v>6</v>
       </c>
       <c r="Y121" s="1">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="Z121">
         <v>1</v>
@@ -6085,7 +6219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="11:29">
+    <row r="122" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K122" s="1">
         <v>606</v>
       </c>
@@ -6117,7 +6251,7 @@
         <v>2</v>
       </c>
       <c r="Y122" s="1">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="Z122">
         <v>1</v>
@@ -6126,13 +6260,13 @@
         <v>0</v>
       </c>
       <c r="AB122">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC122">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="11:29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K123" s="1">
         <v>608</v>
       </c>
@@ -6164,7 +6298,7 @@
         <v>6</v>
       </c>
       <c r="Y123" s="1">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="Z123">
         <v>0</v>
@@ -6179,7 +6313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="11:29">
+    <row r="124" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K124" s="1">
         <v>609</v>
       </c>
@@ -6211,22 +6345,22 @@
         <v>4</v>
       </c>
       <c r="Y124" s="1">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Z124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC124">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="11:29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K125" s="1">
         <v>610</v>
       </c>
@@ -6234,10 +6368,10 @@
         <v>16</v>
       </c>
       <c r="M125">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O125">
         <v>52</v>
@@ -6258,30 +6392,30 @@
         <v>5</v>
       </c>
       <c r="Y125" s="1">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Z125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA125">
         <v>0</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC125">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="11:29">
+    <row r="126" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K126" s="1">
         <v>611</v>
       </c>
       <c r="L126">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M126">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N126">
         <v>1</v>
@@ -6305,30 +6439,30 @@
         <v>4</v>
       </c>
       <c r="Y126" s="1">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="Z126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA126">
         <v>0</v>
       </c>
       <c r="AB126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC126">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="11:29">
+    <row r="127" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K127" s="1">
         <v>612</v>
       </c>
       <c r="L127">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M127">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N127">
         <v>2</v>
@@ -6352,7 +6486,7 @@
         <v>6</v>
       </c>
       <c r="Y127" s="1">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="Z127">
         <v>0</v>
@@ -6367,15 +6501,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="11:29">
+    <row r="128" spans="11:29" x14ac:dyDescent="0.2">
       <c r="K128" s="1">
         <v>613</v>
       </c>
       <c r="L128">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M128">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N128">
         <v>4</v>
@@ -6398,23 +6532,8 @@
       <c r="V128">
         <v>3</v>
       </c>
-      <c r="Y128" s="1">
-        <v>144</v>
-      </c>
-      <c r="Z128">
-        <v>0</v>
-      </c>
-      <c r="AA128">
-        <v>1</v>
-      </c>
-      <c r="AB128">
-        <v>0</v>
-      </c>
-      <c r="AC128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="11:29">
+    </row>
+    <row r="129" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K129" s="1">
         <v>614</v>
       </c>
@@ -6445,34 +6564,19 @@
       <c r="V129">
         <v>1</v>
       </c>
-      <c r="Y129" s="1">
-        <v>146</v>
-      </c>
-      <c r="Z129">
-        <v>0</v>
-      </c>
-      <c r="AA129">
-        <v>0</v>
-      </c>
-      <c r="AB129">
-        <v>1</v>
-      </c>
-      <c r="AC129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="11:29">
+    </row>
+    <row r="130" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K130" s="1">
         <v>615</v>
       </c>
       <c r="L130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M130">
         <v>9</v>
       </c>
       <c r="N130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O130">
         <v>13</v>
@@ -6492,23 +6596,8 @@
       <c r="V130">
         <v>1</v>
       </c>
-      <c r="Y130" s="1">
-        <v>149</v>
-      </c>
-      <c r="Z130">
-        <v>0</v>
-      </c>
-      <c r="AA130">
-        <v>0</v>
-      </c>
-      <c r="AB130">
-        <v>1</v>
-      </c>
-      <c r="AC130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="11:29">
+    </row>
+    <row r="131" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K131" s="1">
         <v>616</v>
       </c>
@@ -6539,23 +6628,8 @@
       <c r="V131">
         <v>1</v>
       </c>
-      <c r="Y131" s="1">
-        <v>164</v>
-      </c>
-      <c r="Z131">
-        <v>0</v>
-      </c>
-      <c r="AA131">
-        <v>0</v>
-      </c>
-      <c r="AB131">
-        <v>1</v>
-      </c>
-      <c r="AC131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="11:29">
+    </row>
+    <row r="132" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K132" s="1">
         <v>617</v>
       </c>
@@ -6587,7 +6661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="11:29">
+    <row r="133" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K133" s="1">
         <v>618</v>
       </c>
@@ -6619,7 +6693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="11:29">
+    <row r="134" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K134" s="1">
         <v>619</v>
       </c>
@@ -6651,15 +6725,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="11:29">
+    <row r="135" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K135" s="1">
         <v>620</v>
       </c>
       <c r="L135">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M135">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N135">
         <v>1</v>
@@ -6683,7 +6757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="11:29">
+    <row r="136" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K136" s="1">
         <v>622</v>
       </c>
@@ -6715,7 +6789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="11:29">
+    <row r="137" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K137" s="1">
         <v>623</v>
       </c>
@@ -6747,7 +6821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="11:29">
+    <row r="138" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K138" s="1">
         <v>625</v>
       </c>
@@ -6779,7 +6853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="11:29">
+    <row r="139" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K139" s="1">
         <v>626</v>
       </c>
@@ -6811,7 +6885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="11:29">
+    <row r="140" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K140" s="1">
         <v>627</v>
       </c>
@@ -6831,19 +6905,19 @@
         <v>141</v>
       </c>
       <c r="S140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T140">
         <v>2</v>
       </c>
       <c r="U140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V140">
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="11:29">
+    <row r="141" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K141" s="1">
         <v>628</v>
       </c>
@@ -6875,7 +6949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="11:29">
+    <row r="142" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K142" s="1">
         <v>630</v>
       </c>
@@ -6895,10 +6969,10 @@
         <v>143</v>
       </c>
       <c r="S142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U142">
         <v>2</v>
@@ -6907,7 +6981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="11:29">
+    <row r="143" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K143" s="1">
         <v>631</v>
       </c>
@@ -6939,7 +7013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="11:29">
+    <row r="144" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K144" s="1">
         <v>632</v>
       </c>
@@ -6971,7 +7045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="11:22">
+    <row r="145" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K145" s="1">
         <v>633</v>
       </c>
@@ -7003,7 +7077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="11:22">
+    <row r="146" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K146" s="1">
         <v>634</v>
       </c>
@@ -7035,15 +7109,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="11:22">
+    <row r="147" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K147" s="1">
         <v>635</v>
       </c>
       <c r="L147">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M147">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N147">
         <v>1</v>
@@ -7067,7 +7141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="11:22">
+    <row r="148" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K148" s="1">
         <v>636</v>
       </c>
@@ -7099,7 +7173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="11:22">
+    <row r="149" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K149" s="1">
         <v>637</v>
       </c>
@@ -7131,7 +7205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="11:22">
+    <row r="150" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K150" s="1">
         <v>638</v>
       </c>
@@ -7163,7 +7237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="11:22">
+    <row r="151" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K151" s="1">
         <v>639</v>
       </c>
@@ -7195,15 +7269,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="11:22">
+    <row r="152" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K152" s="1">
         <v>641</v>
       </c>
       <c r="L152">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M152">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -7227,7 +7301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="11:22">
+    <row r="153" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K153" s="1">
         <v>642</v>
       </c>
@@ -7259,15 +7333,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="11:22">
+    <row r="154" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K154" s="1">
         <v>643</v>
       </c>
       <c r="L154">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M154">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N154">
         <v>0</v>
@@ -7291,7 +7365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="11:22">
+    <row r="155" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K155" s="1">
         <v>644</v>
       </c>
@@ -7311,10 +7385,10 @@
         <v>172</v>
       </c>
       <c r="S155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U155">
         <v>0</v>
@@ -7323,7 +7397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="11:22">
+    <row r="156" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K156" s="1">
         <v>646</v>
       </c>
@@ -7355,7 +7429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="11:22">
+    <row r="157" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K157" s="1">
         <v>647</v>
       </c>
@@ -7372,41 +7446,41 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="11:22">
+    <row r="158" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K158" s="1">
         <v>648</v>
       </c>
       <c r="L158">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M158">
         <v>25</v>
       </c>
       <c r="N158">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O158">
         <v>32</v>
       </c>
     </row>
-    <row r="159" spans="11:22">
+    <row r="159" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K159" s="1">
         <v>650</v>
       </c>
       <c r="L159">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M159">
         <v>10</v>
       </c>
       <c r="N159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O159">
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="11:22">
+    <row r="160" spans="11:22" x14ac:dyDescent="0.2">
       <c r="K160" s="1">
         <v>651</v>
       </c>
@@ -7423,7 +7497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="11:15">
+    <row r="161" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K161" s="1">
         <v>652</v>
       </c>
@@ -7440,15 +7514,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="11:15">
+    <row r="162" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K162" s="1">
         <v>658</v>
       </c>
       <c r="L162">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M162">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N162">
         <v>3</v>
@@ -7457,7 +7531,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="11:15">
+    <row r="163" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K163" s="1">
         <v>659</v>
       </c>
@@ -7474,7 +7548,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="11:15">
+    <row r="164" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K164" s="1">
         <v>662</v>
       </c>
@@ -7491,7 +7565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="11:15">
+    <row r="165" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K165" s="1">
         <v>663</v>
       </c>
@@ -7508,7 +7582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="11:15">
+    <row r="166" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K166" s="1">
         <v>665</v>
       </c>
@@ -7525,7 +7599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="11:15">
+    <row r="167" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K167" s="1">
         <v>666</v>
       </c>
@@ -7542,15 +7616,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="11:15">
+    <row r="168" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K168" s="1">
         <v>667</v>
       </c>
       <c r="L168">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M168">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N168">
         <v>0</v>
@@ -7559,7 +7633,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="169" spans="11:15">
+    <row r="169" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K169" s="1">
         <v>668</v>
       </c>
@@ -7576,7 +7650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="11:15">
+    <row r="170" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K170" s="1">
         <v>669</v>
       </c>
@@ -7593,15 +7667,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="11:15">
+    <row r="171" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K171" s="1">
         <v>671</v>
       </c>
       <c r="L171">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M171">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N171">
         <v>0</v>
@@ -7610,15 +7684,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="172" spans="11:15">
+    <row r="172" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K172" s="1">
         <v>673</v>
       </c>
       <c r="L172">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M172">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N172">
         <v>1</v>
@@ -7627,7 +7701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="11:15">
+    <row r="173" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K173" s="1">
         <v>674</v>
       </c>
@@ -7644,7 +7718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="11:15">
+    <row r="174" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K174" s="1">
         <v>675</v>
       </c>
@@ -7661,7 +7735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="175" spans="11:15">
+    <row r="175" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K175" s="1">
         <v>676</v>
       </c>
@@ -7678,7 +7752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="11:15">
+    <row r="176" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K176" s="1">
         <v>677</v>
       </c>
@@ -7695,7 +7769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="11:15">
+    <row r="177" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K177" s="1">
         <v>680</v>
       </c>
@@ -7712,7 +7786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="11:15">
+    <row r="178" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K178" s="1">
         <v>682</v>
       </c>
@@ -7729,7 +7803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="11:15">
+    <row r="179" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K179" s="1">
         <v>683</v>
       </c>
@@ -7746,15 +7820,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="11:15">
+    <row r="180" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K180" s="1">
         <v>685</v>
       </c>
       <c r="L180">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M180">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N180">
         <v>0</v>
@@ -7763,7 +7837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="11:15">
+    <row r="181" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K181" s="1">
         <v>686</v>
       </c>
@@ -7780,15 +7854,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="11:15">
+    <row r="182" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K182" s="1">
         <v>687</v>
       </c>
       <c r="L182">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M182">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N182">
         <v>0</v>
@@ -7797,15 +7871,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="11:15">
+    <row r="183" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K183" s="1">
         <v>688</v>
       </c>
       <c r="L183">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M183">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N183">
         <v>2</v>
@@ -7814,7 +7888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="11:15">
+    <row r="184" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K184" s="1">
         <v>689</v>
       </c>
@@ -7831,7 +7905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="11:15">
+    <row r="185" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K185" s="1">
         <v>692</v>
       </c>
@@ -7848,7 +7922,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="11:15">
+    <row r="186" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K186" s="1">
         <v>693</v>
       </c>
@@ -7865,24 +7939,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="11:15">
+    <row r="187" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K187" s="1">
         <v>696</v>
       </c>
       <c r="L187">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M187">
         <v>18</v>
       </c>
       <c r="N187">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O187">
         <v>28</v>
       </c>
     </row>
-    <row r="188" spans="11:15">
+    <row r="188" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K188" s="1">
         <v>697</v>
       </c>
@@ -7899,7 +7973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="11:15">
+    <row r="189" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K189" s="1">
         <v>698</v>
       </c>
@@ -7916,7 +7990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="11:15">
+    <row r="190" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K190" s="1">
         <v>699</v>
       </c>
@@ -7933,7 +8007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="11:15">
+    <row r="191" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K191" s="1">
         <v>700</v>
       </c>
@@ -7950,15 +8024,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="11:15">
+    <row r="192" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K192" s="1">
         <v>701</v>
       </c>
       <c r="L192">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M192">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N192">
         <v>1</v>
@@ -7967,7 +8041,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="11:15">
+    <row r="193" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K193" s="1">
         <v>702</v>
       </c>
@@ -7984,7 +8058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="194" spans="11:15">
+    <row r="194" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K194" s="1">
         <v>703</v>
       </c>
@@ -8001,7 +8075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="11:15">
+    <row r="195" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K195" s="1">
         <v>705</v>
       </c>
@@ -8018,7 +8092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="11:15">
+    <row r="196" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K196" s="1">
         <v>706</v>
       </c>
@@ -8035,7 +8109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="11:15">
+    <row r="197" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K197" s="1">
         <v>708</v>
       </c>
@@ -8052,7 +8126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="11:15">
+    <row r="198" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K198" s="1">
         <v>709</v>
       </c>
@@ -8069,15 +8143,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="199" spans="11:15">
+    <row r="199" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K199" s="1">
         <v>711</v>
       </c>
       <c r="L199">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M199">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N199">
         <v>0</v>
@@ -8086,15 +8160,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="11:15">
+    <row r="200" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K200" s="1">
         <v>713</v>
       </c>
       <c r="L200">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M200">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N200">
         <v>0</v>
@@ -8103,7 +8177,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="201" spans="11:15">
+    <row r="201" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K201" s="1">
         <v>714</v>
       </c>
@@ -8120,7 +8194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="11:15">
+    <row r="202" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K202" s="1">
         <v>715</v>
       </c>
@@ -8137,7 +8211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="11:15">
+    <row r="203" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K203" s="1">
         <v>716</v>
       </c>
@@ -8154,7 +8228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="11:15">
+    <row r="204" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K204" s="1">
         <v>717</v>
       </c>
@@ -8171,7 +8245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="205" spans="11:15">
+    <row r="205" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K205" s="1">
         <v>718</v>
       </c>
@@ -8188,15 +8262,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="11:15">
+    <row r="206" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K206" s="1">
         <v>721</v>
       </c>
       <c r="L206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M206">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N206">
         <v>0</v>
@@ -8205,7 +8279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="11:15">
+    <row r="207" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K207" s="1">
         <v>722</v>
       </c>
@@ -8222,7 +8296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="11:15">
+    <row r="208" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K208" s="1">
         <v>724</v>
       </c>
@@ -8239,7 +8313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="11:15">
+    <row r="209" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K209" s="1">
         <v>725</v>
       </c>
@@ -8256,7 +8330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="11:15">
+    <row r="210" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K210" s="1">
         <v>727</v>
       </c>
@@ -8273,7 +8347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="11:15">
+    <row r="211" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K211" s="1">
         <v>728</v>
       </c>
@@ -8290,7 +8364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="11:15">
+    <row r="212" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K212" s="1">
         <v>731</v>
       </c>
@@ -8307,7 +8381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="11:15">
+    <row r="213" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K213" s="1">
         <v>733</v>
       </c>
@@ -8324,7 +8398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="11:15">
+    <row r="214" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K214" s="1">
         <v>734</v>
       </c>
@@ -8341,15 +8415,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="11:15">
+    <row r="215" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K215" s="1">
         <v>738</v>
       </c>
       <c r="L215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M215">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N215">
         <v>0</v>
@@ -8358,7 +8432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="11:15">
+    <row r="216" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K216" s="1">
         <v>739</v>
       </c>
@@ -8375,15 +8449,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="11:15">
+    <row r="217" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K217" s="1">
         <v>742</v>
       </c>
       <c r="L217">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M217">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N217">
         <v>0</v>
@@ -8392,7 +8466,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="218" spans="11:15">
+    <row r="218" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K218" s="1">
         <v>743</v>
       </c>
@@ -8409,7 +8483,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="219" spans="11:15">
+    <row r="219" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K219" s="1">
         <v>749</v>
       </c>
@@ -8426,7 +8500,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="220" spans="11:15">
+    <row r="220" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K220" s="1">
         <v>754</v>
       </c>
@@ -8443,7 +8517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="221" spans="11:15">
+    <row r="221" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K221" s="1">
         <v>755</v>
       </c>
@@ -8460,15 +8534,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="11:15">
+    <row r="222" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K222" s="1">
         <v>757</v>
       </c>
       <c r="L222">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M222">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N222">
         <v>1</v>
@@ -8477,7 +8551,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="223" spans="11:15">
+    <row r="223" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K223" s="1">
         <v>758</v>
       </c>
@@ -8494,7 +8568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="11:15">
+    <row r="224" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K224" s="1">
         <v>760</v>
       </c>
@@ -8511,7 +8585,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="225" spans="11:15">
+    <row r="225" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K225" s="1">
         <v>761</v>
       </c>
@@ -8528,7 +8602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="11:15">
+    <row r="226" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K226" s="1">
         <v>762</v>
       </c>
@@ -8545,7 +8619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="227" spans="11:15">
+    <row r="227" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K227" s="1">
         <v>763</v>
       </c>
@@ -8562,15 +8636,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="11:15">
+    <row r="228" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K228" s="1">
         <v>765</v>
       </c>
       <c r="L228">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M228">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N228">
         <v>2</v>
@@ -8579,7 +8653,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="229" spans="11:15">
+    <row r="229" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K229" s="1">
         <v>766</v>
       </c>
@@ -8596,7 +8670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="230" spans="11:15">
+    <row r="230" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K230" s="1">
         <v>767</v>
       </c>
@@ -8613,7 +8687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="231" spans="11:15">
+    <row r="231" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K231" s="1">
         <v>771</v>
       </c>
@@ -8630,15 +8704,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="232" spans="11:15">
+    <row r="232" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K232" s="1">
         <v>772</v>
       </c>
       <c r="L232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M232">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N232">
         <v>1</v>
@@ -8647,7 +8721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="11:15">
+    <row r="233" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K233" s="1">
         <v>775</v>
       </c>
@@ -8664,7 +8738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="234" spans="11:15">
+    <row r="234" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K234" s="1">
         <v>778</v>
       </c>
@@ -8681,7 +8755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="11:15">
+    <row r="235" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K235" s="1">
         <v>780</v>
       </c>
@@ -8698,7 +8772,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="236" spans="11:15">
+    <row r="236" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K236" s="1">
         <v>782</v>
       </c>
@@ -8715,7 +8789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="11:15">
+    <row r="237" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K237" s="1">
         <v>783</v>
       </c>
@@ -8732,16 +8806,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="11:15">
+    <row r="238" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K238" s="1">
         <v>784</v>
       </c>
       <c r="L238">
+        <v>4</v>
+      </c>
+      <c r="M238">
         <v>5</v>
       </c>
-      <c r="M238">
-        <v>4</v>
-      </c>
       <c r="N238">
         <v>1</v>
       </c>
@@ -8749,15 +8823,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="11:15">
+    <row r="239" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K239" s="1">
         <v>787</v>
       </c>
       <c r="L239">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M239">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N239">
         <v>0</v>
@@ -8766,7 +8840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="11:15">
+    <row r="240" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K240" s="1">
         <v>790</v>
       </c>
@@ -8783,7 +8857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="11:15">
+    <row r="241" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K241" s="1">
         <v>793</v>
       </c>
@@ -8800,7 +8874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="11:15">
+    <row r="242" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K242" s="1">
         <v>794</v>
       </c>
@@ -8817,7 +8891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="11:15">
+    <row r="243" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K243" s="1">
         <v>795</v>
       </c>
@@ -8834,7 +8908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="11:15">
+    <row r="244" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K244" s="1">
         <v>797</v>
       </c>
@@ -8851,15 +8925,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="11:15">
+    <row r="245" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K245" s="1">
         <v>798</v>
       </c>
       <c r="L245">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M245">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N245">
         <v>0</v>
@@ -8868,7 +8942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="11:15">
+    <row r="246" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K246" s="1">
         <v>799</v>
       </c>
@@ -8885,15 +8959,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="11:15">
+    <row r="247" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K247" s="1">
         <v>800</v>
       </c>
       <c r="L247">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M247">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N247">
         <v>0</v>
@@ -8902,7 +8976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="11:15">
+    <row r="248" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K248" s="1">
         <v>803</v>
       </c>
@@ -8919,7 +8993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="11:15">
+    <row r="249" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K249" s="1">
         <v>804</v>
       </c>
@@ -8936,7 +9010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="11:15">
+    <row r="250" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K250" s="1">
         <v>805</v>
       </c>
@@ -8953,7 +9027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="11:15">
+    <row r="251" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K251" s="1">
         <v>807</v>
       </c>
@@ -8970,15 +9044,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="11:15">
+    <row r="252" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K252" s="1">
         <v>809</v>
       </c>
       <c r="L252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M252">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N252">
         <v>1</v>
@@ -8987,15 +9061,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="11:15">
+    <row r="253" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K253" s="1">
         <v>811</v>
       </c>
       <c r="L253">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M253">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N253">
         <v>0</v>
@@ -9004,15 +9078,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="254" spans="11:15">
+    <row r="254" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K254" s="1">
         <v>813</v>
       </c>
       <c r="L254">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M254">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N254">
         <v>1</v>
@@ -9021,7 +9095,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="255" spans="11:15">
+    <row r="255" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K255" s="1">
         <v>814</v>
       </c>
@@ -9038,7 +9112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="11:15">
+    <row r="256" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K256" s="1">
         <v>815</v>
       </c>
@@ -9055,7 +9129,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="257" spans="11:15">
+    <row r="257" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K257" s="1">
         <v>818</v>
       </c>
@@ -9072,7 +9146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="11:15">
+    <row r="258" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K258" s="1">
         <v>819</v>
       </c>
@@ -9089,7 +9163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="11:15">
+    <row r="259" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K259" s="1">
         <v>820</v>
       </c>
@@ -9106,7 +9180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="11:15">
+    <row r="260" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K260" s="1">
         <v>821</v>
       </c>
@@ -9123,7 +9197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="11:15">
+    <row r="261" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K261" s="1">
         <v>824</v>
       </c>
@@ -9140,7 +9214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="11:15">
+    <row r="262" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K262" s="1">
         <v>825</v>
       </c>
@@ -9157,15 +9231,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="11:15">
+    <row r="263" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K263" s="1">
         <v>826</v>
       </c>
       <c r="L263">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M263">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N263">
         <v>1</v>
@@ -9174,7 +9248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="264" spans="11:15">
+    <row r="264" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K264" s="1">
         <v>829</v>
       </c>
@@ -9191,7 +9265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="11:15">
+    <row r="265" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K265" s="1">
         <v>831</v>
       </c>
@@ -9208,7 +9282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="11:15">
+    <row r="266" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K266" s="1">
         <v>832</v>
       </c>
@@ -9225,7 +9299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="267" spans="11:15">
+    <row r="267" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K267" s="1">
         <v>835</v>
       </c>
@@ -9242,15 +9316,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="11:15">
+    <row r="268" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K268" s="1">
         <v>836</v>
       </c>
       <c r="L268">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M268">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N268">
         <v>0</v>
@@ -9259,7 +9333,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="269" spans="11:15">
+    <row r="269" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K269" s="1">
         <v>837</v>
       </c>
@@ -9276,7 +9350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="11:15">
+    <row r="270" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K270" s="1">
         <v>838</v>
       </c>
@@ -9293,7 +9367,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="271" spans="11:15">
+    <row r="271" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K271" s="1">
         <v>840</v>
       </c>
@@ -9310,15 +9384,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="11:15">
+    <row r="272" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K272" s="1">
         <v>841</v>
       </c>
       <c r="L272">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M272">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N272">
         <v>0</v>
@@ -9327,7 +9401,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="273" spans="11:15">
+    <row r="273" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K273" s="1">
         <v>842</v>
       </c>
@@ -9344,7 +9418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="11:15">
+    <row r="274" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K274" s="1">
         <v>846</v>
       </c>
@@ -9361,15 +9435,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="11:15">
+    <row r="275" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K275" s="1">
         <v>854</v>
       </c>
       <c r="L275">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M275">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N275">
         <v>0</v>
@@ -9378,7 +9452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="11:15">
+    <row r="276" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K276" s="1">
         <v>855</v>
       </c>
@@ -9395,7 +9469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="277" spans="11:15">
+    <row r="277" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K277" s="1">
         <v>856</v>
       </c>
@@ -9412,7 +9486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="11:15">
+    <row r="278" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K278" s="1">
         <v>861</v>
       </c>
@@ -9429,7 +9503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="11:15">
+    <row r="279" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K279" s="1">
         <v>865</v>
       </c>
@@ -9446,7 +9520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="11:15">
+    <row r="280" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K280" s="1">
         <v>866</v>
       </c>
@@ -9463,7 +9537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="281" spans="11:15">
+    <row r="281" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K281" s="1">
         <v>867</v>
       </c>
@@ -9480,7 +9554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="11:15">
+    <row r="282" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K282" s="1">
         <v>869</v>
       </c>
@@ -9497,7 +9571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="283" spans="11:15">
+    <row r="283" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K283" s="1">
         <v>870</v>
       </c>
@@ -9514,15 +9588,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="11:15">
+    <row r="284" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K284" s="1">
         <v>871</v>
       </c>
       <c r="L284">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M284">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N284">
         <v>1</v>
@@ -9531,7 +9605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="11:15">
+    <row r="285" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K285" s="1">
         <v>874</v>
       </c>
@@ -9548,7 +9622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="11:15">
+    <row r="286" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K286" s="1">
         <v>876</v>
       </c>
@@ -9565,7 +9639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="11:15">
+    <row r="287" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K287" s="1">
         <v>878</v>
       </c>
@@ -9582,7 +9656,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="288" spans="11:15">
+    <row r="288" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K288" s="1">
         <v>880</v>
       </c>
@@ -9599,7 +9673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="289" spans="11:15">
+    <row r="289" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K289" s="1">
         <v>881</v>
       </c>
@@ -9616,15 +9690,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="290" spans="11:15">
+    <row r="290" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K290" s="1">
         <v>883</v>
       </c>
       <c r="L290">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M290">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N290">
         <v>0</v>
@@ -9633,7 +9707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="291" spans="11:15">
+    <row r="291" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K291" s="1">
         <v>884</v>
       </c>
@@ -9650,15 +9724,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="11:15">
+    <row r="292" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K292" s="1">
         <v>885</v>
       </c>
       <c r="L292">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M292">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N292">
         <v>3</v>
@@ -9667,7 +9741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="293" spans="11:15">
+    <row r="293" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K293" s="1">
         <v>896</v>
       </c>
@@ -9684,7 +9758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" spans="11:15">
+    <row r="294" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K294" s="1">
         <v>900</v>
       </c>
@@ -9701,15 +9775,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="11:15">
+    <row r="295" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K295" s="1">
         <v>905</v>
       </c>
       <c r="L295">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M295">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N295">
         <v>0</v>
@@ -9718,7 +9792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="296" spans="11:15">
+    <row r="296" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K296" s="1">
         <v>906</v>
       </c>
@@ -9735,7 +9809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="11:15">
+    <row r="297" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K297" s="1">
         <v>915</v>
       </c>
@@ -9752,7 +9826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="11:15">
+    <row r="298" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K298" s="1">
         <v>916</v>
       </c>
@@ -9769,7 +9843,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="299" spans="11:15">
+    <row r="299" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K299" s="1">
         <v>917</v>
       </c>
@@ -9786,7 +9860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="11:15">
+    <row r="300" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K300" s="1">
         <v>918</v>
       </c>
@@ -9803,7 +9877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="11:15">
+    <row r="301" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K301" s="1">
         <v>920</v>
       </c>
@@ -9820,15 +9894,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="11:15">
+    <row r="302" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K302" s="1">
         <v>921</v>
       </c>
       <c r="L302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M302">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N302">
         <v>0</v>
@@ -9837,24 +9911,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="303" spans="11:15">
+    <row r="303" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K303" s="1">
         <v>924</v>
       </c>
       <c r="L303">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M303">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O303">
         <v>10</v>
       </c>
     </row>
-    <row r="304" spans="11:15">
+    <row r="304" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K304" s="1">
         <v>925</v>
       </c>
@@ -9871,7 +9945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="11:15">
+    <row r="305" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K305" s="1">
         <v>927</v>
       </c>
@@ -9888,7 +9962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="11:15">
+    <row r="306" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K306" s="1">
         <v>931</v>
       </c>
@@ -9905,7 +9979,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="307" spans="11:15">
+    <row r="307" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K307" s="1">
         <v>933</v>
       </c>
@@ -9922,15 +9996,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="308" spans="11:15">
+    <row r="308" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K308" s="1">
         <v>939</v>
       </c>
       <c r="L308">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M308">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N308">
         <v>0</v>
@@ -9939,7 +10013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="11:15">
+    <row r="309" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K309" s="1">
         <v>940</v>
       </c>
@@ -9956,15 +10030,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="310" spans="11:15">
+    <row r="310" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K310" s="1">
         <v>941</v>
       </c>
       <c r="L310">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M310">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N310">
         <v>0</v>
@@ -9973,7 +10047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="11:15">
+    <row r="311" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K311" s="1">
         <v>945</v>
       </c>
@@ -9990,7 +10064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="312" spans="11:15">
+    <row r="312" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K312" s="1">
         <v>947</v>
       </c>
@@ -10007,7 +10081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="313" spans="11:15">
+    <row r="313" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K313" s="1">
         <v>949</v>
       </c>
@@ -10024,15 +10098,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="314" spans="11:15">
+    <row r="314" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K314" s="1">
         <v>952</v>
       </c>
       <c r="L314">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M314">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N314">
         <v>1</v>
@@ -10041,7 +10115,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="315" spans="11:15">
+    <row r="315" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K315" s="1">
         <v>954</v>
       </c>
@@ -10058,7 +10132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="316" spans="11:15">
+    <row r="316" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K316" s="1">
         <v>956</v>
       </c>
@@ -10075,15 +10149,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="317" spans="11:15">
+    <row r="317" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K317" s="1">
         <v>959</v>
       </c>
       <c r="L317">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M317">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N317">
         <v>0</v>
@@ -10092,7 +10166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="11:15">
+    <row r="318" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K318" s="1">
         <v>961</v>
       </c>
@@ -10109,7 +10183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="319" spans="11:15">
+    <row r="319" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K319" s="1">
         <v>962</v>
       </c>
@@ -10126,7 +10200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="320" spans="11:15">
+    <row r="320" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K320" s="1">
         <v>966</v>
       </c>
@@ -10143,15 +10217,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="321" spans="11:15">
+    <row r="321" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K321" s="1">
         <v>970</v>
       </c>
       <c r="L321">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M321">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N321">
         <v>0</v>
@@ -10160,7 +10234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="322" spans="11:15">
+    <row r="322" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K322" s="1">
         <v>973</v>
       </c>
@@ -10177,7 +10251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="11:15">
+    <row r="323" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K323" s="1">
         <v>975</v>
       </c>
@@ -10194,7 +10268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="11:15">
+    <row r="324" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K324" s="1">
         <v>977</v>
       </c>
@@ -10211,15 +10285,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="11:15">
+    <row r="325" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K325" s="1">
         <v>982</v>
       </c>
       <c r="L325">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M325">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N325">
         <v>0</v>
@@ -10228,7 +10302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="11:15">
+    <row r="326" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K326" s="1">
         <v>984</v>
       </c>
@@ -10245,7 +10319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="327" spans="11:15">
+    <row r="327" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K327" s="1">
         <v>986</v>
       </c>
@@ -10262,7 +10336,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="328" spans="11:15">
+    <row r="328" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K328" s="1">
         <v>987</v>
       </c>
@@ -10279,7 +10353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="329" spans="11:15">
+    <row r="329" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K329" s="1">
         <v>989</v>
       </c>
@@ -10296,7 +10370,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="330" spans="11:15">
+    <row r="330" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K330" s="1">
         <v>992</v>
       </c>
@@ -10313,15 +10387,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" spans="11:15">
+    <row r="331" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K331" s="1">
         <v>995</v>
       </c>
       <c r="L331">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M331">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N331">
         <v>0</v>
@@ -10330,7 +10404,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="332" spans="11:15">
+    <row r="332" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K332" s="1">
         <v>996</v>
       </c>
@@ -10347,7 +10421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="333" spans="11:15">
+    <row r="333" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K333" s="1">
         <v>997</v>
       </c>
@@ -10364,7 +10438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="11:15">
+    <row r="334" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K334" s="1">
         <v>1004</v>
       </c>
@@ -10381,7 +10455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="335" spans="11:15">
+    <row r="335" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K335" s="1">
         <v>1008</v>
       </c>
@@ -10398,7 +10472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="336" spans="11:15">
+    <row r="336" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K336" s="1">
         <v>1016</v>
       </c>
@@ -10415,7 +10489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="337" spans="11:15">
+    <row r="337" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K337" s="1">
         <v>1017</v>
       </c>
@@ -10432,7 +10506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="338" spans="11:15">
+    <row r="338" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K338" s="1">
         <v>1018</v>
       </c>
@@ -10449,7 +10523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="339" spans="11:15">
+    <row r="339" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K339" s="1">
         <v>1020</v>
       </c>
@@ -10466,7 +10540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="340" spans="11:15">
+    <row r="340" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K340" s="1">
         <v>1023</v>
       </c>
@@ -10483,7 +10557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="11:15">
+    <row r="341" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K341" s="1">
         <v>1024</v>
       </c>
@@ -10500,7 +10574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="342" spans="11:15">
+    <row r="342" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K342" s="1">
         <v>1025</v>
       </c>
@@ -10517,7 +10591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="343" spans="11:15">
+    <row r="343" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K343" s="1">
         <v>1028</v>
       </c>
@@ -10534,7 +10608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="344" spans="11:15">
+    <row r="344" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K344" s="1">
         <v>1031</v>
       </c>
@@ -10551,7 +10625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="345" spans="11:15">
+    <row r="345" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K345" s="1">
         <v>1032</v>
       </c>
@@ -10568,7 +10642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="346" spans="11:15">
+    <row r="346" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K346" s="1">
         <v>1034</v>
       </c>
@@ -10585,7 +10659,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="347" spans="11:15">
+    <row r="347" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K347" s="1">
         <v>1039</v>
       </c>
@@ -10602,7 +10676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="11:15">
+    <row r="348" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K348" s="1">
         <v>1041</v>
       </c>
@@ -10619,7 +10693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="349" spans="11:15">
+    <row r="349" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K349" s="1">
         <v>1043</v>
       </c>
@@ -10636,7 +10710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="350" spans="11:15">
+    <row r="350" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K350" s="1">
         <v>1044</v>
       </c>
@@ -10653,15 +10727,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="351" spans="11:15">
+    <row r="351" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K351" s="1">
         <v>1049</v>
       </c>
       <c r="L351">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M351">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N351">
         <v>1</v>
@@ -10670,7 +10744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="11:15">
+    <row r="352" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K352" s="1">
         <v>1051</v>
       </c>
@@ -10687,7 +10761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="353" spans="11:15">
+    <row r="353" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K353" s="1">
         <v>1053</v>
       </c>
@@ -10704,7 +10778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="11:15">
+    <row r="354" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K354" s="1">
         <v>1064</v>
       </c>
@@ -10721,7 +10795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="11:15">
+    <row r="355" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K355" s="1">
         <v>1073</v>
       </c>
@@ -10738,7 +10812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="356" spans="11:15">
+    <row r="356" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K356" s="1">
         <v>1076</v>
       </c>
@@ -10755,15 +10829,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="357" spans="11:15">
+    <row r="357" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K357" s="1">
         <v>1077</v>
       </c>
       <c r="L357">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M357">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N357">
         <v>0</v>
@@ -10772,15 +10846,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="358" spans="11:15">
+    <row r="358" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K358" s="1">
         <v>1078</v>
       </c>
       <c r="L358">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M358">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N358">
         <v>0</v>
@@ -10789,7 +10863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="359" spans="11:15">
+    <row r="359" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K359" s="1">
         <v>1081</v>
       </c>
@@ -10806,7 +10880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="11:15">
+    <row r="360" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K360" s="1">
         <v>1082</v>
       </c>
@@ -10823,7 +10897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="361" spans="11:15">
+    <row r="361" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K361" s="1">
         <v>1088</v>
       </c>
@@ -10840,7 +10914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="362" spans="11:15">
+    <row r="362" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K362" s="1">
         <v>1091</v>
       </c>
@@ -10857,24 +10931,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="363" spans="11:15">
+    <row r="363" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K363" s="1">
         <v>1095</v>
       </c>
       <c r="L363">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M363">
         <v>6</v>
       </c>
       <c r="N363">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O363">
         <v>10</v>
       </c>
     </row>
-    <row r="364" spans="11:15">
+    <row r="364" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K364" s="1">
         <v>1097</v>
       </c>
@@ -10891,15 +10965,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="365" spans="11:15">
+    <row r="365" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K365" s="1">
         <v>1103</v>
       </c>
       <c r="L365">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M365">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N365">
         <v>2</v>
@@ -10908,7 +10982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="366" spans="11:15">
+    <row r="366" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K366" s="1">
         <v>1106</v>
       </c>
@@ -10925,7 +10999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="11:15">
+    <row r="367" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K367" s="1">
         <v>1107</v>
       </c>
@@ -10942,7 +11016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="368" spans="11:15">
+    <row r="368" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K368" s="1">
         <v>1112</v>
       </c>
@@ -10959,15 +11033,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="369" spans="11:15">
+    <row r="369" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K369" s="1">
         <v>1113</v>
       </c>
       <c r="L369">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M369">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N369">
         <v>0</v>
@@ -10976,15 +11050,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="11:15">
+    <row r="370" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K370" s="1">
         <v>1114</v>
       </c>
       <c r="L370">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M370">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N370">
         <v>0</v>
@@ -10993,7 +11067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="371" spans="11:15">
+    <row r="371" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K371" s="1">
         <v>1124</v>
       </c>
@@ -11010,7 +11084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="372" spans="11:15">
+    <row r="372" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K372" s="1">
         <v>1135</v>
       </c>
@@ -11027,7 +11101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="11:15">
+    <row r="373" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K373" s="1">
         <v>1137</v>
       </c>
@@ -11044,7 +11118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="11:15">
+    <row r="374" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K374" s="1">
         <v>1138</v>
       </c>
@@ -11061,15 +11135,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="11:15">
+    <row r="375" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K375" s="1">
         <v>1140</v>
       </c>
       <c r="L375">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M375">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N375">
         <v>0</v>
@@ -11078,7 +11152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="376" spans="11:15">
+    <row r="376" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K376" s="1">
         <v>1146</v>
       </c>
@@ -11095,15 +11169,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="377" spans="11:15">
+    <row r="377" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K377" s="1">
         <v>1150</v>
       </c>
       <c r="L377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M377">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N377">
         <v>0</v>
@@ -11112,7 +11186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="378" spans="11:15">
+    <row r="378" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K378" s="1">
         <v>1151</v>
       </c>
@@ -11129,7 +11203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="379" spans="11:15">
+    <row r="379" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K379" s="1">
         <v>1152</v>
       </c>
@@ -11146,7 +11220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="380" spans="11:15">
+    <row r="380" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K380" s="1">
         <v>1153</v>
       </c>
@@ -11163,7 +11237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="381" spans="11:15">
+    <row r="381" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K381" s="1">
         <v>1155</v>
       </c>
@@ -11180,15 +11254,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="382" spans="11:15">
+    <row r="382" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K382" s="1">
         <v>1160</v>
       </c>
       <c r="L382">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M382">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N382">
         <v>0</v>
@@ -11197,7 +11271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="383" spans="11:15">
+    <row r="383" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K383" s="1">
         <v>1165</v>
       </c>
@@ -11214,15 +11288,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="384" spans="11:15">
+    <row r="384" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K384" s="1">
         <v>1166</v>
       </c>
       <c r="L384">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M384">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N384">
         <v>0</v>
@@ -11231,7 +11305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="385" spans="11:15">
+    <row r="385" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K385" s="1">
         <v>1170</v>
       </c>
@@ -11248,7 +11322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="386" spans="11:15">
+    <row r="386" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K386" s="1">
         <v>1172</v>
       </c>
@@ -11265,7 +11339,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="387" spans="11:15">
+    <row r="387" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K387" s="1">
         <v>1181</v>
       </c>
@@ -11282,7 +11356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="388" spans="11:15">
+    <row r="388" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K388" s="1">
         <v>1184</v>
       </c>
@@ -11299,7 +11373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="389" spans="11:15">
+    <row r="389" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K389" s="1">
         <v>1185</v>
       </c>
@@ -11316,7 +11390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="390" spans="11:15">
+    <row r="390" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K390" s="1">
         <v>1191</v>
       </c>
@@ -11333,7 +11407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="391" spans="11:15">
+    <row r="391" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K391" s="1">
         <v>1201</v>
       </c>
@@ -11350,15 +11424,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="392" spans="11:15">
+    <row r="392" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K392" s="1">
         <v>1203</v>
       </c>
       <c r="L392">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M392">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N392">
         <v>1</v>
@@ -11367,7 +11441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="393" spans="11:15">
+    <row r="393" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K393" s="1">
         <v>1205</v>
       </c>
@@ -11384,7 +11458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="11:15">
+    <row r="394" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K394" s="1">
         <v>1206</v>
       </c>
@@ -11401,7 +11475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="395" spans="11:15">
+    <row r="395" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K395" s="1">
         <v>1209</v>
       </c>
@@ -11418,7 +11492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="396" spans="11:15">
+    <row r="396" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K396" s="1">
         <v>1215</v>
       </c>
@@ -11435,7 +11509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="397" spans="11:15">
+    <row r="397" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K397" s="1">
         <v>1216</v>
       </c>
@@ -11452,7 +11526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="398" spans="11:15">
+    <row r="398" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K398" s="1">
         <v>1220</v>
       </c>
@@ -11469,7 +11543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="399" spans="11:15">
+    <row r="399" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K399" s="1">
         <v>1222</v>
       </c>
@@ -11486,7 +11560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="400" spans="11:15">
+    <row r="400" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K400" s="1">
         <v>1230</v>
       </c>
@@ -11503,7 +11577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="401" spans="11:15">
+    <row r="401" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K401" s="1">
         <v>1231</v>
       </c>
@@ -11520,7 +11594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="402" spans="11:15">
+    <row r="402" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K402" s="1">
         <v>1235</v>
       </c>
@@ -11537,7 +11611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="11:15">
+    <row r="403" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K403" s="1">
         <v>1239</v>
       </c>
@@ -11554,7 +11628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="404" spans="11:15">
+    <row r="404" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K404" s="1">
         <v>1241</v>
       </c>
@@ -11571,7 +11645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="405" spans="11:15">
+    <row r="405" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K405" s="1">
         <v>1245</v>
       </c>
@@ -11588,7 +11662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="406" spans="11:15">
+    <row r="406" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K406" s="1">
         <v>1256</v>
       </c>
@@ -11605,7 +11679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="11:15">
+    <row r="407" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K407" s="1">
         <v>1266</v>
       </c>
@@ -11622,7 +11696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="408" spans="11:15">
+    <row r="408" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K408" s="1">
         <v>1268</v>
       </c>
@@ -11639,7 +11713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="409" spans="11:15">
+    <row r="409" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K409" s="1">
         <v>1274</v>
       </c>
@@ -11656,7 +11730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="410" spans="11:15">
+    <row r="410" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K410" s="1">
         <v>1275</v>
       </c>
@@ -11673,15 +11747,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="411" spans="11:15">
+    <row r="411" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K411" s="1">
         <v>1277</v>
       </c>
       <c r="L411">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M411">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N411">
         <v>0</v>
@@ -11690,7 +11764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="11:15">
+    <row r="412" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K412" s="1">
         <v>1285</v>
       </c>
@@ -11707,7 +11781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="413" spans="11:15">
+    <row r="413" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K413" s="1">
         <v>1289</v>
       </c>
@@ -11724,7 +11798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="11:15">
+    <row r="414" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K414" s="1">
         <v>1291</v>
       </c>
@@ -11741,7 +11815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="415" spans="11:15">
+    <row r="415" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K415" s="1">
         <v>1302</v>
       </c>
@@ -11758,7 +11832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="11:15">
+    <row r="416" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K416" s="1">
         <v>1358</v>
       </c>
@@ -11775,7 +11849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="417" spans="11:15">
+    <row r="417" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K417" s="1">
         <v>1361</v>
       </c>
@@ -11792,7 +11866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="418" spans="11:15">
+    <row r="418" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K418" s="1">
         <v>1364</v>
       </c>
@@ -11809,7 +11883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="419" spans="11:15">
+    <row r="419" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K419" s="1">
         <v>1369</v>
       </c>
@@ -11826,24 +11900,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="420" spans="11:15">
+    <row r="420" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K420" s="1">
         <v>1377</v>
       </c>
       <c r="L420">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M420">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N420">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O420">
         <v>24</v>
       </c>
     </row>
-    <row r="421" spans="11:15">
+    <row r="421" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K421" s="1">
         <v>1390</v>
       </c>
@@ -11860,15 +11934,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="422" spans="11:15">
+    <row r="422" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K422" s="1">
         <v>1397</v>
       </c>
       <c r="L422">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M422">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N422">
         <v>0</v>
@@ -11877,7 +11951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="423" spans="11:15">
+    <row r="423" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K423" s="1">
         <v>1404</v>
       </c>
@@ -11894,7 +11968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="424" spans="11:15">
+    <row r="424" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K424" s="1">
         <v>1420</v>
       </c>
@@ -11911,7 +11985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="425" spans="11:15">
+    <row r="425" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K425" s="1">
         <v>1427</v>
       </c>
@@ -11928,7 +12002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="426" spans="11:15">
+    <row r="426" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K426" s="1">
         <v>1446</v>
       </c>
@@ -11945,7 +12019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="427" spans="11:15">
+    <row r="427" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K427" s="1">
         <v>1466</v>
       </c>
@@ -11962,7 +12036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="428" spans="11:15">
+    <row r="428" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K428" s="1">
         <v>1470</v>
       </c>
@@ -11979,7 +12053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="429" spans="11:15">
+    <row r="429" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K429" s="1">
         <v>1473</v>
       </c>
@@ -11996,7 +12070,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="430" spans="11:15">
+    <row r="430" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K430" s="1">
         <v>1483</v>
       </c>
@@ -12013,7 +12087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="431" spans="11:15">
+    <row r="431" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K431" s="1">
         <v>1499</v>
       </c>
@@ -12030,7 +12104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="432" spans="11:15">
+    <row r="432" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K432" s="1">
         <v>1510</v>
       </c>
@@ -12047,7 +12121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="433" spans="11:15">
+    <row r="433" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K433" s="1">
         <v>1521</v>
       </c>
@@ -12064,7 +12138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="434" spans="11:15">
+    <row r="434" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K434" s="1">
         <v>1539</v>
       </c>
@@ -12081,7 +12155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="435" spans="11:15">
+    <row r="435" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K435" s="1">
         <v>1576</v>
       </c>
@@ -12098,7 +12172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="436" spans="11:15">
+    <row r="436" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K436" s="1">
         <v>1585</v>
       </c>
@@ -12115,15 +12189,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="437" spans="11:15">
+    <row r="437" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K437" s="1">
         <v>1619</v>
       </c>
       <c r="L437">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M437">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N437">
         <v>1</v>
@@ -12132,7 +12206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="438" spans="11:15">
+    <row r="438" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K438" s="1">
         <v>1643</v>
       </c>
@@ -12149,7 +12223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="439" spans="11:15">
+    <row r="439" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K439" s="1">
         <v>1661</v>
       </c>
@@ -12166,7 +12240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="440" spans="11:15">
+    <row r="440" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K440" s="1">
         <v>1664</v>
       </c>
@@ -12183,7 +12257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="441" spans="11:15">
+    <row r="441" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K441" s="1">
         <v>1672</v>
       </c>
@@ -12200,7 +12274,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="442" spans="11:15">
+    <row r="442" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K442" s="1">
         <v>1694</v>
       </c>
@@ -12217,7 +12291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="443" spans="11:15">
+    <row r="443" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K443" s="1">
         <v>1744</v>
       </c>
@@ -12234,7 +12308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="444" spans="11:15">
+    <row r="444" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K444" s="1">
         <v>1765</v>
       </c>
@@ -12251,7 +12325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="445" spans="11:15">
+    <row r="445" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K445" s="1">
         <v>1824</v>
       </c>
@@ -12268,7 +12342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="446" spans="11:15">
+    <row r="446" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K446" s="1">
         <v>1843</v>
       </c>
@@ -12285,7 +12359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="447" spans="11:15">
+    <row r="447" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K447" s="1">
         <v>1853</v>
       </c>
@@ -12302,7 +12376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="448" spans="11:15">
+    <row r="448" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K448" s="1">
         <v>1901</v>
       </c>
@@ -12319,7 +12393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="449" spans="11:15">
+    <row r="449" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K449" s="1">
         <v>1909</v>
       </c>
@@ -12336,7 +12410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="450" spans="11:15">
+    <row r="450" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K450" s="1">
         <v>1941</v>
       </c>
@@ -12353,7 +12427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="451" spans="11:15">
+    <row r="451" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K451" s="1">
         <v>1992</v>
       </c>
@@ -12370,7 +12444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="452" spans="11:15">
+    <row r="452" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K452" s="1">
         <v>2024</v>
       </c>
@@ -12387,15 +12461,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="453" spans="11:15">
+    <row r="453" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K453" s="1">
         <v>2085</v>
       </c>
       <c r="L453">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M453">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N453">
         <v>0</v>
@@ -12404,7 +12478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="454" spans="11:15">
+    <row r="454" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K454" s="1">
         <v>2150</v>
       </c>
@@ -12421,15 +12495,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="455" spans="11:15">
+    <row r="455" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K455" s="1">
         <v>2209</v>
       </c>
       <c r="L455">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M455">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N455">
         <v>1</v>
@@ -12438,7 +12512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="456" spans="11:15">
+    <row r="456" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K456" s="1">
         <v>2239</v>
       </c>
@@ -12455,15 +12529,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="11:15">
+    <row r="457" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K457" s="1">
         <v>2302</v>
       </c>
       <c r="L457">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M457">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N457">
         <v>0</v>
@@ -12472,24 +12546,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="458" spans="11:15">
+    <row r="458" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K458" s="1">
         <v>2421</v>
       </c>
       <c r="L458">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M458">
         <v>6</v>
       </c>
       <c r="N458">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O458">
         <v>10</v>
       </c>
     </row>
-    <row r="459" spans="11:15">
+    <row r="459" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K459" s="1">
         <v>2447</v>
       </c>
@@ -12506,32 +12580,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="460" spans="11:15">
+    <row r="460" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K460" s="1">
         <v>2758</v>
       </c>
       <c r="L460">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M460">
         <v>6</v>
       </c>
       <c r="N460">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O460">
         <v>10</v>
       </c>
     </row>
-    <row r="461" spans="11:15">
+    <row r="461" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K461" s="1">
         <v>2820</v>
       </c>
       <c r="L461">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M461">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N461">
         <v>1</v>
@@ -12540,15 +12614,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="462" spans="11:15">
+    <row r="462" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K462" s="1">
         <v>3089</v>
       </c>
       <c r="L462">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M462">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N462">
         <v>0</v>
@@ -12557,15 +12631,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="463" spans="11:15">
+    <row r="463" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K463" s="1">
         <v>3145</v>
       </c>
       <c r="L463">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M463">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N463">
         <v>2</v>
@@ -12574,41 +12648,41 @@
         <v>14</v>
       </c>
     </row>
-    <row r="464" spans="11:15">
+    <row r="464" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K464" s="1">
         <v>3167</v>
       </c>
       <c r="L464">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M464">
         <v>7</v>
       </c>
       <c r="N464">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O464">
         <v>10</v>
       </c>
     </row>
-    <row r="465" spans="11:15">
+    <row r="465" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K465" s="1">
         <v>3341</v>
       </c>
       <c r="L465">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M465">
         <v>9</v>
       </c>
       <c r="N465">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O465">
         <v>10</v>
       </c>
     </row>
-    <row r="466" spans="11:15">
+    <row r="466" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K466" s="1">
         <v>4063</v>
       </c>

--- a/examples/output/190304-02_46-errors.xlsx
+++ b/examples/output/190304-02_46-errors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klalande/Box Sync/klalande/Kevin/Online Courses/2017 Stanford Graduate Certificate/CS224/02_Project/01_Code/pytorch-pretrained-BERT/examples/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBEDDAB-25BF-6C49-86C7-D916540CB6C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC85B8E-31FE-0C4E-8063-E7D15134E916}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="25700" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -582,7 +582,7 @@
   <dimension ref="C2:AC466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -599,7 +599,7 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="3" t="s">
         <v>41</v>
       </c>
     </row>
